--- a/Graficas.xlsx
+++ b/Graficas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\HT-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF80AFA-8DE6-4E60-836B-BBE0B8BDEA8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6956EF1-13B2-4F5C-9066-71FD0F1AA44A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{86C9FFE3-D1C0-4630-9F4F-904836E8DCC6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>3000 datos</t>
   </si>
@@ -121,6 +121,12 @@
   <si>
     <t>O(n)</t>
   </si>
+  <si>
+    <t>TIEMPOS TEÓRICOS DE LOS SORTS</t>
+  </si>
+  <si>
+    <t>Se hizo uso del profiler de Eclipse, haciendo uso de JavaKit para poder ver los tiempos de corrida. Los resultados obtenidos se encuentran en las siguientes hojas.</t>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,20 +504,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,13 +523,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2445,16 +2466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:rowOff>188118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1050132</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2479,6 +2500,236 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1170215</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>84706</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E835A6-99C5-48E0-9670-F84708C1BD2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9348108" y="3068411"/>
+          <a:ext cx="7323705" cy="3008414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1168512</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="710066" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A008BEA3-6CB0-4590-8354-B03D18C60F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10965655" y="4554991"/>
+          <a:ext cx="710066" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>Selection</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1130413</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>35038</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="596510" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861BD398-0102-4D40-ABB8-CBF0287DDAC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14424592" y="4470967"/>
+          <a:ext cx="596510" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>Merge,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>Quick</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1153205</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="732188" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30880379-A345-41E9-85D0-E5B99A01F8DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10950348" y="3114334"/>
+          <a:ext cx="732188" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>Insertion,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-GT" sz="1100"/>
+            <a:t>Radix</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5887,54 +6138,54 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:M11"/>
+  <dimension ref="B1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M1" s="20"/>
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20"/>
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="26"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -5964,10 +6215,10 @@
       <c r="L3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="26"/>
+      <c r="M3" s="25"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="21">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
         <v>3000</v>
       </c>
       <c r="C4" s="8">
@@ -5985,24 +6236,24 @@
       <c r="G4" s="7">
         <v>31</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>46</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <v>46</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>46</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>31</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="15">
         <v>78</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>2500</v>
       </c>
@@ -6036,9 +6287,9 @@
       <c r="L5" s="2">
         <v>62</v>
       </c>
-      <c r="M5" s="20"/>
+      <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>2000</v>
       </c>
@@ -6073,7 +6324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>1500</v>
       </c>
@@ -6108,7 +6359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>1000</v>
       </c>
@@ -6143,7 +6394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>500</v>
       </c>
@@ -6178,7 +6429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>10</v>
       </c>
@@ -6213,11 +6464,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -6238,11 +6489,71 @@
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
     </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B36:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6255,7 +6566,7 @@
   <dimension ref="C3:V32"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:V32"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6300,40 +6611,40 @@
       </c>
     </row>
     <row r="31" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="P31" s="18" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="P31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
     </row>
     <row r="32" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6341,7 +6652,8 @@
     <mergeCell ref="P31:V32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6391,40 +6703,40 @@
       </c>
     </row>
     <row r="31" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="S31" s="18" t="s">
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="S31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
     </row>
     <row r="32" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6432,7 +6744,8 @@
     <mergeCell ref="S31:Y32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6482,40 +6795,40 @@
       </c>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="P35" s="18" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="P35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6523,7 +6836,8 @@
     <mergeCell ref="P35:V36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6573,40 +6887,40 @@
       </c>
     </row>
     <row r="36" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="R36" s="18" t="s">
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="R36" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
     </row>
     <row r="37" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6614,7 +6928,8 @@
     <mergeCell ref="R36:X37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6664,40 +6979,40 @@
       </c>
     </row>
     <row r="35" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="S35" s="18" t="s">
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="S35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
     </row>
     <row r="36" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6705,6 +7020,7 @@
     <mergeCell ref="S35:Y36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>